--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -4,43 +4,56 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId1"/>
+    <sheet name="userdetails" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Confirm password</t>
-  </si>
-  <si>
-    <t>jino555</t>
-  </si>
-  <si>
-    <t>9745754904</t>
-  </si>
-  <si>
-    <t>Jino Philip</t>
-  </si>
-  <si>
-    <t>Hub_Id</t>
-  </si>
-  <si>
-    <t>VGRO-KL-TVM01</t>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Hub ID</t>
+  </si>
+  <si>
+    <t>VGRO-KL-MLP01</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@123#</t>
+  </si>
+  <si>
+    <t>ranjith</t>
+  </si>
+  <si>
+    <t>ranjith555</t>
   </si>
 </sst>
 </file>
@@ -70,10 +83,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,8 +142,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -139,10 +155,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,37 +462,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -488,27 +543,23 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7170" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
     <sheet name="userdetails" sheetId="1" r:id="rId2"/>
+    <sheet name="filter" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>ranjith555</t>
+  </si>
+  <si>
+    <t>Hub_code</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>February</t>
   </si>
 </sst>
 </file>
@@ -502,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,4 +576,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>